--- a/biology/Zoologie/André_Cyr/André_Cyr.xlsx
+++ b/biology/Zoologie/André_Cyr/André_Cyr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Cyr</t>
+          <t>André_Cyr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Cyr, né en 1948, est un ornithologue québécois, récipiendaire du prix Charles-Eusèbe-Dionne du Regroupement QuébecOiseaux.
 André a été initié aux oiseaux à partir de 1958 sous la tutelle de l’abbé Bertrand Blanchet, évêque de Rimouski, puis Jarques Roberge et ensuite Jacques Cayouette, Jean Huot et Michel Lepage au Camp école Trois Saumons. C’est durant ces années de camp qu’il apprend à imiter les oiseaux, en suivant l’exemple de l’abbé Blanchet. Il s’initie déjà à la photographie d’oiseaux.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Cyr</t>
+          <t>André_Cyr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André étudie à l’Université de Montréal en zoologie où il obtient un baccalauréat en biologie ainsi qu’une maîtrise en ornithologie de l’Université de Montréal. Il poursuit ses études doctorales en Allemagne. Il détient un doctorat en biogéographie de l’Université de la Sarre (Allemagne).
 Il produit son premier article scientifique durant son baccalauréat en biologie dans lequel il décrit la première mention du merle noir d’Europe trouvé en Amérique, article qu’il publie dans The Auk (avec R. McNeil).
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Cyr</t>
+          <t>André_Cyr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,21 +586,91 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation de André Cyr lors de la remise du Prix Charles-Eusèbe-Dionne par Vincent Létourneau, Regroupement Québec Oiseaux, 2008.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Présentation de André Cyr lors de la remise du Prix Charles-Eusèbe-Dionne par Vincent Létourneau, Regroupement Québec Oiseaux, 2008.
 Présentation de André Cyr lors de la remise du Prix Quebec Education Award par Eve Marshall, Société de Protection des Oiseaux, 2008-2009, In recognition to the cause of birds and habitat conservation in Quebec.
 Paquin, Jean. 1992. QuébecOiseaux 3(2).
 Remise du Prix Charles-Eusèbe Dionne au Professeur André Cyr. Picoides (Bulletin of the Society of Canadian Ornithologists) 2008. Vol 21(3) : 19
-André Cyr receives Charles-Eusèbe Dionne 2008 Award. Picoides (Bulletin of the Society of Canadian Ornithologists) 2008. Vol 21(3) : 20
-Publications
-Cyr, A. et J. Larivée.  1995.  Atlas saisonnier des oiseaux du Québec. Presses de l’Université de Sherbrooke et Société de Loisir Ornithologique de l’Estrie, Sherbrooke, Québec. 711 pages.
+André Cyr receives Charles-Eusèbe Dionne 2008 Award. Picoides (Bulletin of the Society of Canadian Ornithologists) 2008. Vol 21(3) : 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Cyr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Cyr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cyr, A. et J. Larivée.  1995.  Atlas saisonnier des oiseaux du Québec. Presses de l’Université de Sherbrooke et Société de Loisir Ornithologique de l’Estrie, Sherbrooke, Québec. 711 pages.
 Dion, A. et A. Cyr.  1988. Jardins d’oiseaux. Quoi planter pour avoir des oiseaux en toute saison. Brimar et Québec Agenda, Beauceville, 191pp.
 Peterson, R.T. 1990. Oiseaux. Guide simplifié des oiseaux communs d’Amérique du Nord. Coll. Les Petits Guides Peterson. Broquet, Montréal. (traduction)
 Peterson, R.T.  l984.  Guide des Oiseaux de l'Amérique du Nord à l'Est des Rocheuses. Traduction de P. Blain, A. Cyr, N. David et M. Gosselin.  France Amérique, Montréal. (traduction) Roger Tory Peterson
-Cyr, A.  1977.  Beziehungen zwischen Strukturdiversität und Vogelpopulationen in der Umgebung des Verdichtungsraumes von Saarbrücken. Dissertation zur Ph.D., Universität des Saarlandes, Saarbrücken.
-Articles scientifiques
-Dunn, E.H., J. Larivée et A. Cyr.  2001.  Site specific observation in the breeding season improves the ability of checklist data to track population trends. J. Field Ornithol. 72: 547-555.
+Cyr, A.  1977.  Beziehungen zwischen Strukturdiversität und Vogelpopulationen in der Umgebung des Verdichtungsraumes von Saarbrücken. Dissertation zur Ph.D., Universität des Saarlandes, Saarbrücken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Cyr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Cyr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dunn, E.H., J. Larivée et A. Cyr.  2001.  Site specific observation in the breeding season improves the ability of checklist data to track population trends. J. Field Ornithol. 72: 547-555.
 Droege, S., A. Cyr et J. Larivée.  1998.  Checklists: an under-used tool for the inventory and monitoring of plants and animals. Conserv. Biol. 12: 1-6.
 Dunn, E.H., J. Larivée et A. Cyr.  1996.  Can checklist programs be used to monitor populations of birds recorded during the migration season? Wilson Bull. 108: 540-549.
 Brunet, R., N. Caza, et A. Cyr. 1996. Food intake and circadian rhythms of activity of red-winged blackbirds (Agelaius phoeniceus). A time-course study of the effects of alpha-chloralose and secobarbital. Biological Rhythms Research 27(2) : 227-240.
@@ -604,17 +688,85 @@
 Cyr, A.  l98l.  Limitation and variability in hearing ability in censusing birds.  Studies Avian Biol., Cooper Ornithol. Soc. 6: 327-333.
 Cyr, A. et J. Cyr.  1979.  Welche Merkmale der Vegetation können einen Einfluß auf Vogelgemeinschaften  haben? Vogelwelt 100: 165-181.
 Cyr, A.  1977.  Überwinterung einer Mönschgrasmücke bei Saarbrücken. Ornithol Beobachterrings Saar 19: 27.
-McNeil, R. et A. Cyr.  1971.  European Blackbird (Turdus merula) in Quebec. Auk 88: 919-920.
-Communications scientifiques
-Cyr, A. et J. Larivée.  2004. Use of volunteer checklist programs to monitor boreal forest birds. Invités au symposium sur Monitoring birds of the Boreal Forest. American Ornithologists’ Union et  Congrès de la Société des ornithologues du Canada. Université Laval, Québec, 16-22 août.
+McNeil, R. et A. Cyr.  1971.  European Blackbird (Turdus merula) in Quebec. Auk 88: 919-920.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Cyr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Cyr</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Communications scientifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cyr, A. et J. Larivée.  2004. Use of volunteer checklist programs to monitor boreal forest birds. Invités au symposium sur Monitoring birds of the Boreal Forest. American Ornithologists’ Union et  Congrès de la Société des ornithologues du Canada. Université Laval, Québec, 16-22 août.
 Cyr, A.  1994.  Extensive monitoring with bird lists. In: Nadav Nur and Jean Clobert, Monitoring avian populations : methodologies and objectives. Round table . XXI Congressus Internationalis Ornithologicus, 21-27 août 1994, Vienne, Autriche.
 Larivée, J. et A Cyr..  1993.  Effects of sample size on trends derived from field checklists in birds migrating through Québec. Workshop : Developing a North American Bird Migration Monitoring Program for Landbird Species Nesting in Northern Canada and Alaska. Canadian Wildlife Service and US FWS, Simco, Ontario, 14-16 septembre.
 Cyr, A. et J. Larivée.  1992.  Trends in bird populations in Québec comparing 20 years of data from  ÉPOQ (Studies of Bird Populations in Québec) and BBS (Breeding Bird Survey). 110th Meeting American Ornithologists Union, 24-28 juin, Aimes, Iowa.
 Cyr, A.  1987.  Aim Oriented backyard landscaping: first step toward improved enrivonment. First Meeting of the Canadian Society for Landscape Ecology and Management. 19-22 mai, Guelph, Ontario.
 Cyr, A. et J. Larivée.  l979.  Significance of data collected on birds of Quebec, Canada, by non-standardized methods. VI Int. Conf. Bird Census Work, 24-28 sept., Universität Göttingen, Allemagne  fédérale.
-Cyr, A.  1976.  A method of describing habitat structure and its use in bird population studies. V Int. Conf. Bird Census Work and Altas Studies. 15-21 oct., Szymbark N. Gorlice, Pologne.
-Publications de photographies
-Cyr, A. 1995.  21 photographies d’oiseaux et de nidification. In: J. Gauthier et Y Aubry, Les oiseaux nicheurs du Québec. Association Québécoise des Groupes d’Ornithologues et Société Québécoise de Protection des Oiseaux, Montréal.
+Cyr, A.  1976.  A method of describing habitat structure and its use in bird population studies. V Int. Conf. Bird Census Work and Altas Studies. 15-21 oct., Szymbark N. Gorlice, Pologne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André_Cyr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Cyr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications de photographies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyr, A. 1995.  21 photographies d’oiseaux et de nidification. In: J. Gauthier et Y Aubry, Les oiseaux nicheurs du Québec. Association Québécoise des Groupes d’Ornithologues et Société Québécoise de Protection des Oiseaux, Montréal.
 Cyr, A.  1993. Hibou moyen-duc, page couverture. In: D. Lepage. L’observation des oiseaux en Estrie : les meilleurs sites, les périodes favorables. Société de Loisir Ornithologique de l’Estrie, Sherbrooke, 290 p.
 Cyr, A. 1990.  Green-backed heron swording prey. Behavioral Ecology 1(1): Front cover and Scientific publicity. D. Kramer, éd., Oxford, England.
 Cyr, A. 1989. 5 photographies. In: W. Williams, Birds of the Northeast. World Wide Printing, Tampa.
